--- a/Process_Design/T=780K,P=6atm.xlsx
+++ b/Process_Design/T=780K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0508627673</v>
       </c>
@@ -675,112 +759,157 @@
         <v>17.3893</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>52706.69906118805</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>110473.2412322502</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>36824.41374408339</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1.169277223721219</v>
+      </c>
+      <c r="T2">
         <v>926.7106636602525</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>78673.87405032352</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>115498.2877944069</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0508627673</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA2">
+        <v>474.7203248839915</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>217551.4681757153</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>454682.5684872449</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>151560.856162415</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>151560.856162415</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0508627673</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.41375595</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>846121.2132294674</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6870.504251423275</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0508627673</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>496.1675217644768</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>20957746.22680156</v>
+      </c>
+      <c r="AS2">
+        <v>43801689.61401527</v>
+      </c>
+      <c r="AT2">
+        <v>14600563.20467176</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>15366308.14904585</v>
       </c>
-      <c r="AH2">
-        <v>20957746.22680156</v>
-      </c>
-      <c r="AI2">
-        <v>43801689.61401527</v>
-      </c>
-      <c r="AJ2">
-        <v>14600563.20467176</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>29966871.3537176</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0508627673</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>56351.38795980594</v>
+      </c>
+      <c r="BB2">
+        <v>34388.88931361699</v>
+      </c>
+      <c r="BC2">
+        <v>71872.77866545951</v>
+      </c>
+      <c r="BD2">
+        <v>23957.5928884865</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>21555.89837137541</v>
       </c>
-      <c r="AO2">
-        <v>34388.88931361699</v>
-      </c>
-      <c r="AP2">
-        <v>71872.77866545951</v>
-      </c>
-      <c r="AQ2">
-        <v>23957.5928884865</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>45513.49125986191</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0508627673</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9163660118809837</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>115498.2877944069</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>151560.856162415</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>29966871.3537176</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>45513.49125986191</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6870.504251423275</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68046801.78642294</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>37760487.29323722</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0920719237</v>
       </c>
@@ -818,112 +947,157 @@
         <v>18.39350274286</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>58534.51599848872</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>122688.3455328324</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>40896.11517761079</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1.383771923103996</v>
+      </c>
+      <c r="T3">
         <v>1096.708437656072</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>93105.9767385103</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>134002.0919161211</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0920719237</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA3">
+        <v>495.1313408083495</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>223586.5643854147</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>467295.9195655166</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>155765.3065218389</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>155765.3065218389</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0920719237</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.5175375</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>882500.9354614663</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7165.907595947106</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0920719237</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>285.4842026492826</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>13101024.6466049</v>
+      </c>
+      <c r="AS3">
+        <v>27381141.51140423</v>
+      </c>
+      <c r="AT3">
+        <v>9127047.170468077</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>8841445.756048281</v>
       </c>
-      <c r="AH3">
-        <v>13101024.6466049</v>
-      </c>
-      <c r="AI3">
-        <v>27381141.51140423</v>
-      </c>
-      <c r="AJ3">
-        <v>9127047.170468077</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>17968492.92651636</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0920719237</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>32427.88524738879</v>
+      </c>
+      <c r="BB3">
+        <v>24289.75710387258</v>
+      </c>
+      <c r="BC3">
+        <v>50765.59234709369</v>
+      </c>
+      <c r="BD3">
+        <v>16921.8641156979</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>12404.52496555941</v>
       </c>
-      <c r="AO3">
-        <v>24289.75710387258</v>
-      </c>
-      <c r="AP3">
-        <v>50765.59234709369</v>
-      </c>
-      <c r="AQ3">
-        <v>16921.8641156979</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>29326.3890812573</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0920719237</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8807971792878515</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>134002.0919161211</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>155765.3065218389</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>17968492.92651636</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>29326.3890812573</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7165.907595947106</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>67152671.3473641</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>48857918.72573258</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.12487645</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>19.45569647171</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>65006.71859216044</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>136254.0821691683</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>45418.02738972276</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1.637613978876361</v>
+      </c>
+      <c r="T4">
         <v>1297.89095895846</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>110185.5345365776</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>155603.5619263004</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.12487645</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA4">
+        <v>518.2367181001096</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>230314.2178046629</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>481356.7152117455</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>160452.2384039151</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>160452.2384039151</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.12487645</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.63501876</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>923682.9722133286</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7500.305734372228</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.12487645</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>220.1256904536777</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>10503417.19484838</v>
+      </c>
+      <c r="AS4">
+        <v>21952141.93723311</v>
+      </c>
+      <c r="AT4">
+        <v>7317380.645744368</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>6817292.633350397</v>
       </c>
-      <c r="AH4">
-        <v>10503417.19484838</v>
-      </c>
-      <c r="AI4">
-        <v>21952141.93723311</v>
-      </c>
-      <c r="AJ4">
-        <v>7317380.645744368</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>14134673.27909476</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.12487645</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>25006.68200164308</v>
+      </c>
+      <c r="BB4">
+        <v>20580.84988653452</v>
+      </c>
+      <c r="BC4">
+        <v>43013.97626285716</v>
+      </c>
+      <c r="BD4">
+        <v>14337.99208761905</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>9565.718172145216</v>
       </c>
-      <c r="AO4">
-        <v>20580.84988653452</v>
-      </c>
-      <c r="AP4">
-        <v>43013.97626285716</v>
-      </c>
-      <c r="AQ4">
-        <v>14337.99208761905</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>23903.71025976427</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.12487645</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8430892519029037</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>155603.5619263004</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>160452.2384039151</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>14134673.27909476</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>23903.71025976427</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7500.305734372228</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>66126710.85840255</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>51644577.76298343</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.151020912</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>20.57923013606</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>72194.5574463982</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>151319.7924076506</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>50439.93080255021</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>1.938021371200411</v>
+      </c>
+      <c r="T5">
         <v>1535.978837744886</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>130398.2034127169</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>180838.1342152671</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.151020912</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA5">
+        <v>544.5205729439718</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>237840.9998080836</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>497087.6895988946</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>165695.8965329648</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>165695.8965329648</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.151020912</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.76866126</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>970530.1914771567</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7880.705154794511</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.151020912</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>191.0801558249881</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>9313088.783897096</v>
+      </c>
+      <c r="AS5">
+        <v>19464355.55834493</v>
+      </c>
+      <c r="AT5">
+        <v>6488118.51944831</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>5917752.425899881</v>
       </c>
-      <c r="AH5">
-        <v>9313088.783897096</v>
-      </c>
-      <c r="AI5">
-        <v>19464355.55834493</v>
-      </c>
-      <c r="AJ5">
-        <v>6488118.51944831</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>12405870.94534819</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.151020912</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>21718.63098002324</v>
+      </c>
+      <c r="BB5">
+        <v>18798.14742289769</v>
+      </c>
+      <c r="BC5">
+        <v>39288.12811385618</v>
+      </c>
+      <c r="BD5">
+        <v>13096.04270461873</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>8307.951571746853</v>
       </c>
-      <c r="AO5">
-        <v>18798.14742289769</v>
-      </c>
-      <c r="AP5">
-        <v>39288.12811385618</v>
-      </c>
-      <c r="AQ5">
-        <v>13096.04270461873</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>21403.99427636558</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.151020912</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.8034813198393796</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>180838.1342152671</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>165695.8965329648</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>12405870.94534819</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>21403.99427636558</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7880.705154794511</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>64956578.01388641</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>52174888.33835883</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.172042631</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>21.76764593632</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>80177.16046071293</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>168051.3283256543</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>56017.10944188476</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>2.293536122470611</v>
+      </c>
+      <c r="T6">
         <v>1817.742053864083</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>154318.7264478362</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>210335.8358897209</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.172042631</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA6">
+        <v>574.4209666372408</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>246250.4970434519</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>514663.5388208145</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>171554.5129402715</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>171554.5129402715</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.172042631</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.92069236</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>1023823.37498256</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>8313.445804858389</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.172042631</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>176.8009830055381</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>8718112.491176324</v>
+      </c>
+      <c r="AS6">
+        <v>18220855.10655852</v>
+      </c>
+      <c r="AT6">
+        <v>6073618.368852839</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5475526.443681514</v>
       </c>
-      <c r="AH6">
-        <v>8718112.491176324</v>
-      </c>
-      <c r="AI6">
-        <v>18220855.10655852</v>
-      </c>
-      <c r="AJ6">
-        <v>6073618.368852839</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>11549144.81253435</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.172042631</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>20113.21986803197</v>
+      </c>
+      <c r="BB6">
+        <v>17888.6461990559</v>
+      </c>
+      <c r="BC6">
+        <v>37387.27055602684</v>
+      </c>
+      <c r="BD6">
+        <v>12462.42351867561</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>7693.839301805177</v>
       </c>
-      <c r="AO6">
-        <v>17888.6461990559</v>
-      </c>
-      <c r="AP6">
-        <v>37387.27055602684</v>
-      </c>
-      <c r="AQ6">
-        <v>12462.42351867561</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>20156.26282048079</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.172042631</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7622690312235409</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>210335.8358897209</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>171554.5129402715</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>11549144.81253435</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>20156.26282048079</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>8313.445804858389</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>63622344.83311116</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>51662839.96312147</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.189153741</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>23.02469074168</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>89042.40549848575</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>186632.8819248261</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>62210.9606416087</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>2.714267253414469</v>
+      </c>
+      <c r="T7">
         <v>2151.192511693638</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>182627.2809406578</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>244838.2415822665</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.189153741</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA7">
+        <v>608.35848609218</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>255611.9493239526</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>534228.9740870609</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>178076.324695687</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>178076.324695687</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.189153741</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-3.09325057</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1084312.158862266</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>8804.614729961602</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.189153741</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>170.27264747143</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>8443716.626259357</v>
+      </c>
+      <c r="AS7">
+        <v>17647367.74888206</v>
+      </c>
+      <c r="AT7">
+        <v>5882455.916294018</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>5273343.892190186</v>
       </c>
-      <c r="AH7">
-        <v>8443716.626259357</v>
-      </c>
-      <c r="AI7">
-        <v>17647367.74888206</v>
-      </c>
-      <c r="AJ7">
-        <v>5882455.916294018</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>11155799.8084842</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.189153741</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>19387.82756190584</v>
+      </c>
+      <c r="BB7">
+        <v>17468.20690900607</v>
+      </c>
+      <c r="BC7">
+        <v>36508.55243982268</v>
+      </c>
+      <c r="BD7">
+        <v>12169.51747994089</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>7416.357532564894</v>
       </c>
-      <c r="AO7">
-        <v>17468.20690900607</v>
-      </c>
-      <c r="AP7">
-        <v>36508.55243982268</v>
-      </c>
-      <c r="AQ7">
-        <v>12169.51747994089</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>19585.87501250579</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.189153741</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.7198468967560306</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>244838.2415822665</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>178076.324695687</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>11155799.8084842</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>19585.87501250579</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>8804.614729961602</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>62109590.88977616</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>50502486.02527153</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.203165527</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>24.35432780328</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>98887.88722661593</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>207269.011626987</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>69089.670542329</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>3.212178211555527</v>
+      </c>
+      <c r="T8">
         <v>2545.811841568333</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>216128.8177998116</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>285218.4883421406</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.203165527</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA8">
+        <v>646.8391804526318</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>266008.2085038481</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>555957.1557730425</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>185319.0519243475</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>185319.0519243475</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.203165527</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.28890894</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1152898.50347714</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>9361.535848234373</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.203165527</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>168.6341664195278</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>8374603.014406443</v>
+      </c>
+      <c r="AS8">
+        <v>17502920.30010946</v>
+      </c>
+      <c r="AT8">
+        <v>5834306.766703155</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>5222600.134012775</v>
       </c>
-      <c r="AH8">
-        <v>8374603.014406443</v>
-      </c>
-      <c r="AI8">
-        <v>17502920.30010946</v>
-      </c>
-      <c r="AJ8">
-        <v>5834306.766703155</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>11056906.90071593</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.203165527</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>19218.28127097939</v>
+      </c>
+      <c r="BB8">
+        <v>17369.03543102628</v>
+      </c>
+      <c r="BC8">
+        <v>36301.28405084492</v>
+      </c>
+      <c r="BD8">
+        <v>12100.4280169483</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>7351.501585821205</v>
       </c>
-      <c r="AO8">
-        <v>17369.03543102628</v>
-      </c>
-      <c r="AP8">
-        <v>36301.28405084492</v>
-      </c>
-      <c r="AQ8">
-        <v>12100.4280169483</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>19451.92960276951</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.203165527</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6765564781268637</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>285218.4883421406</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>185319.0519243475</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>11056906.90071593</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>19451.92960276951</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>9361.535848234373</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>60382522.78848262</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>48826264.8820492</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.214929474</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>25.76074912358</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>109821.990517014</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>230186.8921236614</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>76728.96404122046</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>3.801426997497297</v>
+      </c>
+      <c r="T9">
         <v>3012.820966866484</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>255775.9466662692</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>332504.9107074896</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.214929474</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA9">
+        <v>690.4148744743509</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>277523.0259109133</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>580023.1241538088</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>193341.0413846029</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>193341.0413846029</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.214929474</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.51047327</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1230565.957681851</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>9992.195576376629</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.214929474</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>170.375180279225</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>8448038.289553517</v>
+      </c>
+      <c r="AS9">
+        <v>17656400.02516685</v>
+      </c>
+      <c r="AT9">
+        <v>5885466.675055617</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>5276519.333247599</v>
       </c>
-      <c r="AH9">
-        <v>8448038.289553517</v>
-      </c>
-      <c r="AI9">
-        <v>17656400.02516685</v>
-      </c>
-      <c r="AJ9">
-        <v>5885466.675055617</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>11161986.00830322</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.214929474</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>19433.60913123366</v>
+      </c>
+      <c r="BB9">
+        <v>17494.92603287244</v>
+      </c>
+      <c r="BC9">
+        <v>36564.39540870339</v>
+      </c>
+      <c r="BD9">
+        <v>12188.13180290113</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>7433.870195365968</v>
       </c>
-      <c r="AO9">
-        <v>17494.92603287244</v>
-      </c>
-      <c r="AP9">
-        <v>36564.39540870339</v>
-      </c>
-      <c r="AQ9">
-        <v>12188.13180290113</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>19622.0019982671</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.214929474</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6329570277839974</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>332504.9107074896</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>193341.0413846029</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>11161986.00830322</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>19622.0019982671</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>9992.195576376629</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>58430797.80576073</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>46713351.64779077</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.225052044</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>27.24838894127</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>121965.0856400088</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>255638.8195014584</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>85212.93983381946</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>4.498768850765207</v>
+      </c>
+      <c r="T10">
         <v>3565.499252673965</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>302696.0303051335</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>387908.970138953</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.225052044</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA10">
+        <v>739.6796166128611</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>290239.0237960319</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>606599.5597337066</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>202199.8532445689</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>202199.8532445689</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.225052044</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.76096405</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1318373.328048518</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>10705.19142375396</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.225052044</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>174.7145652171702</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>8630585.105828157</v>
+      </c>
+      <c r="AS10">
+        <v>18037922.87118085</v>
+      </c>
+      <c r="AT10">
+        <v>6012640.957060282</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>5410910.08477576</v>
       </c>
-      <c r="AH10">
-        <v>8630585.105828157</v>
-      </c>
-      <c r="AI10">
-        <v>18037922.87118085</v>
-      </c>
-      <c r="AJ10">
-        <v>6012640.957060282</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>11423551.04183604</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.225052044</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>19945.38482638513</v>
+      </c>
+      <c r="BB10">
+        <v>17791.91531704759</v>
+      </c>
+      <c r="BC10">
+        <v>37185.10301262947</v>
+      </c>
+      <c r="BD10">
+        <v>12395.03433754316</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>7629.637953233682</v>
       </c>
-      <c r="AO10">
-        <v>17791.91531704759</v>
-      </c>
-      <c r="AP10">
-        <v>37185.10301262947</v>
-      </c>
-      <c r="AQ10">
-        <v>12395.03433754316</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>20024.67229077684</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.225052044</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5893550285362126</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>387908.970138953</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>202199.8532445689</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>11423551.04183604</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>20024.67229077684</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>10705.19142375396</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>56218549.04829369</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>44174159.3193596</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.234108943</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>28.82193741304</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>135450.851053551</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>283904.9838082428</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>94634.99460274761</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>5.324032556436467</v>
+      </c>
+      <c r="T11">
         <v>4219.562002603722</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>358223.2325127118</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>452858.2271154594</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.234108943</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA11">
+        <v>795.1236494129528</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>304200.5308526158</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>635779.1094819671</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>211926.3698273223</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>211926.3698273223</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.234108943</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-4.04287396</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1417194.401931571</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>11507.61854368435</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.234108943</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>181.1639137678082</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>8900644.078005856</v>
+      </c>
+      <c r="AS11">
+        <v>18602346.12303224</v>
+      </c>
+      <c r="AT11">
+        <v>6200782.041010746</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>5610646.409389019</v>
       </c>
-      <c r="AH11">
-        <v>8900644.078005856</v>
-      </c>
-      <c r="AI11">
-        <v>18602346.12303224</v>
-      </c>
-      <c r="AJ11">
-        <v>6200782.041010746</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>11811428.45039976</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.234108943</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>20698.50458511437</v>
+      </c>
+      <c r="BB11">
+        <v>18223.47411955236</v>
+      </c>
+      <c r="BC11">
+        <v>38087.06090986443</v>
+      </c>
+      <c r="BD11">
+        <v>12695.68696995481</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>7917.726207461278</v>
       </c>
-      <c r="AO11">
-        <v>18223.47411955236</v>
-      </c>
-      <c r="AP11">
-        <v>38087.06090986443</v>
-      </c>
-      <c r="AQ11">
-        <v>12695.68696995481</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>20613.41317741609</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.234108943</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5463163773957767</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>452858.2271154594</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>211926.3698273223</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>11811428.45039976</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>20613.41317741609</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>11507.61854368435</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>53721333.47501713</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>41212999.39595348</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.242170604</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>30.48635567337</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>150427.7472318659</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>315296.558197991</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>105098.8527326637</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>6.300684400208906</v>
+      </c>
+      <c r="T12">
         <v>4993.60742138557</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>423936.4633780458</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>529035.3161107094</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.242170604</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA12">
+        <v>857.7284019940131</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>319561.7536377275</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>667884.0651028503</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>222628.0217009501</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>222628.0217009501</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.242170604</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-4.36119316</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1528778.436638242</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>12413.68090550252</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.242170604</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>189.7725672047458</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>9258889.738270681</v>
+      </c>
+      <c r="AS12">
+        <v>19351079.55298572</v>
+      </c>
+      <c r="AT12">
+        <v>6450359.850995241</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>5877256.406330978</v>
       </c>
-      <c r="AH12">
-        <v>9258889.738270681</v>
-      </c>
-      <c r="AI12">
-        <v>19351079.55298572</v>
-      </c>
-      <c r="AJ12">
-        <v>6450359.850995241</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>12327616.25732622</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.242170604</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>21698.83348828891</v>
+      </c>
+      <c r="BB12">
+        <v>18787.09889240819</v>
+      </c>
+      <c r="BC12">
+        <v>39265.03668513312</v>
+      </c>
+      <c r="BD12">
+        <v>13088.34556171104</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>8300.378506818308</v>
       </c>
-      <c r="AO12">
-        <v>18787.09889240819</v>
-      </c>
-      <c r="AP12">
-        <v>39265.03668513312</v>
-      </c>
-      <c r="AQ12">
-        <v>13088.34556171104</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>21388.72406852935</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.242170604</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.5040962720122881</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>529035.3161107094</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>222628.0217009501</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>12327616.25732622</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>21388.72406852935</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>12413.68090550252</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>50900124.0681847</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>37787042.06807279</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.249767593</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>32.24689125523</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>167060.6491469585</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>350159.120612025</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>116719.706870675</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>7.456495315904413</v>
+      </c>
+      <c r="T13">
         <v>5909.645362620044</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>501704.2677640975</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>618423.9746347725</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.249767593</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA13">
+        <v>928.100543310025</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>336367.6329087063</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>703008.3527791961</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>234336.1175930654</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>234336.1175930654</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.249767593</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-4.71900631</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1654206.732977587</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>13432.15867177801</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.249767593</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>200.2382473157808</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>9691153.542500565</v>
+      </c>
+      <c r="AS13">
+        <v>20254510.90382618</v>
+      </c>
+      <c r="AT13">
+        <v>6751503.634608727</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>6201378.519369731</v>
       </c>
-      <c r="AH13">
-        <v>9691153.542500565</v>
-      </c>
-      <c r="AI13">
-        <v>20254510.90382618</v>
-      </c>
-      <c r="AJ13">
-        <v>6751503.634608727</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>12952882.15397846</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.249767593</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>22912.23192185632</v>
+      </c>
+      <c r="BB13">
+        <v>19457.00896891</v>
+      </c>
+      <c r="BC13">
+        <v>40665.14874502189</v>
+      </c>
+      <c r="BD13">
+        <v>13555.04958167396</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>8764.535544735838</v>
       </c>
-      <c r="AO13">
-        <v>19457.00896891</v>
-      </c>
-      <c r="AP13">
-        <v>40665.14874502189</v>
-      </c>
-      <c r="AQ13">
-        <v>13555.04958167396</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>22319.5851264098</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.249767593</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.4631547332404652</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>618423.9746347725</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>234336.1175930654</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>12952882.15397846</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>22319.5851264098</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>13432.15867177801</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>47709900.09648976</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>33868506.10648527</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.257070936</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>34.1090948888</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>185532.6636865388</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>388876.4630869852</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>129625.4876956617</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>8.824330711028949</v>
+      </c>
+      <c r="T14">
         <v>6993.723305025995</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>593737.968082936</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>723363.4557785977</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.257070936</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA14">
+        <v>1007.095297495783</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>354709.8925764778</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>741343.6754848387</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>247114.5584949462</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>247114.5584949462</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.257070936</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-5.12066187</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1795003.605887444</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>14575.42927980604</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.257070936</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>212.5931575521197</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>10197116.57980951</v>
+      </c>
+      <c r="AS14">
+        <v>21311973.65180187</v>
+      </c>
+      <c r="AT14">
+        <v>7103991.217267288</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>6584010.089389146</v>
       </c>
-      <c r="AH14">
-        <v>10197116.57980951</v>
-      </c>
-      <c r="AI14">
-        <v>21311973.65180187</v>
-      </c>
-      <c r="AJ14">
-        <v>7103991.217267288</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>13688001.30665644</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.257070936</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>24342.65754641778</v>
+      </c>
+      <c r="BB14">
+        <v>20228.77179748785</v>
+      </c>
+      <c r="BC14">
+        <v>42278.13305674961</v>
+      </c>
+      <c r="BD14">
+        <v>14092.71101891654</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>9311.711231213185</v>
       </c>
-      <c r="AO14">
-        <v>20228.77179748785</v>
-      </c>
-      <c r="AP14">
-        <v>42278.13305674961</v>
-      </c>
-      <c r="AQ14">
-        <v>14092.71101891654</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>23404.42225012972</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.257070936</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.423800205697214</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>723363.4557785977</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>247114.5584949462</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>13688001.30665644</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>23404.42225012972</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>14575.42927980604</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>44123611.18002151</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>29427152.00756159</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.264244934</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>36.078837333</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>206047.1386616227</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>431874.8026347612</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>143958.2675449204</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>10.4430844763516</v>
+      </c>
+      <c r="T15">
         <v>8276.666601732462</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>702654.5083762455</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>846612.7759211659</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.264244934</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA15">
+        <v>1095.640171868235</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>374680.9367060316</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>783083.1577156059</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>261027.7192385353</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>261027.7192385353</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.264244934</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-5.57087583</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1952822.204759481</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>15856.91630264698</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.264244934</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>226.8888836941137</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>10777095.46861489</v>
+      </c>
+      <c r="AS15">
+        <v>22524129.52940513</v>
+      </c>
+      <c r="AT15">
+        <v>7508043.176468376</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>7026748.728006702</v>
       </c>
-      <c r="AH15">
-        <v>10777095.46861489</v>
-      </c>
-      <c r="AI15">
-        <v>22524129.52940513</v>
-      </c>
-      <c r="AJ15">
-        <v>7508043.176468376</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>14534791.90447508</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.264244934</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>25996.22959457427</v>
+      </c>
+      <c r="BB15">
+        <v>21098.66423697918</v>
+      </c>
+      <c r="BC15">
+        <v>44096.20825528647</v>
+      </c>
+      <c r="BD15">
+        <v>14698.73608509549</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>9944.246334789208</v>
       </c>
-      <c r="AO15">
-        <v>21098.66423697918</v>
-      </c>
-      <c r="AP15">
-        <v>44096.20825528647</v>
-      </c>
-      <c r="AQ15">
-        <v>14698.73608509549</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>24642.9824198847</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.264244934</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.3862891146223441</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>846612.7759211659</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>261027.7192385353</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>14534791.90447508</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>24642.9824198847</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>15856.91630264698</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>40095125.64084173</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>24412193.34248442</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.271407289</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>38.1623294224</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>228829.9173149067</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>479627.5066920445</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>159875.8355640148</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>12.35878617928204</v>
+      </c>
+      <c r="T16">
         <v>9794.955986389985</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>831550.9509278997</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>991426.7864919145</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.271407289</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA16">
+        <v>1194.750224641851</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>396376.1910840582</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>828426.2393656815</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>276142.0797885605</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>276142.0797885605</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.271407289</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-6.07480934</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>2129471.725962394</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>17291.31041481464</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.271407289</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>243.2280752448008</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>11433314.29281705</v>
+      </c>
+      <c r="AS16">
+        <v>23895626.87198763</v>
+      </c>
+      <c r="AT16">
+        <v>7965208.957329208</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>7532773.490331481</v>
       </c>
-      <c r="AH16">
-        <v>11433314.29281705</v>
-      </c>
-      <c r="AI16">
-        <v>23895626.87198763</v>
-      </c>
-      <c r="AJ16">
-        <v>7965208.957329208</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>15497982.44766069</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.271407289</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>27884.87392284542</v>
+      </c>
+      <c r="BB16">
+        <v>22065.57308222949</v>
+      </c>
+      <c r="BC16">
+        <v>46117.04774185962</v>
+      </c>
+      <c r="BD16">
+        <v>15372.34924728654</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>10666.70281144114</v>
       </c>
-      <c r="AO16">
-        <v>22065.57308222949</v>
-      </c>
-      <c r="AP16">
-        <v>46117.04774185962</v>
-      </c>
-      <c r="AQ16">
-        <v>15372.34924728654</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>26039.05205872768</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.271407289</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.3508161101295798</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>991426.7864919145</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>276142.0797885605</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>15497982.44766069</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>26039.05205872768</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>17291.31041481464</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>35572567.43216088</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>18763685.75574618</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.278707782</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>40.366139719</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>254131.8045728767</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>532660.2623847497</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>177553.4207949166</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>14.62590834329575</v>
+      </c>
+      <c r="T17">
         <v>11591.76365747904</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>984092.4355047314</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>1161645.856299648</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.278707782</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA17">
+        <v>1305.381071621031</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>419862.1097093346</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>877511.8092925092</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>292503.9364308364</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>292503.9364308364</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.278707782</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-6.63732131</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>2326655.418254276</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>18892.44199622472</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.278707782</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>261.6710557967414</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>12166140.51593859</v>
+      </c>
+      <c r="AS17">
+        <v>25427233.67831166</v>
+      </c>
+      <c r="AT17">
+        <v>8475744.559437219</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>8103952.59802508</v>
       </c>
-      <c r="AH17">
-        <v>12166140.51593859</v>
-      </c>
-      <c r="AI17">
-        <v>25427233.67831166</v>
-      </c>
-      <c r="AJ17">
-        <v>8475744.559437219</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>16579697.1574623</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.278707782</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>30015.62494080589</v>
+      </c>
+      <c r="BB17">
+        <v>23125.49732528591</v>
+      </c>
+      <c r="BC17">
+        <v>48332.28940984754</v>
+      </c>
+      <c r="BD17">
+        <v>16110.76313661585</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>11481.77150913891</v>
       </c>
-      <c r="AO17">
-        <v>23125.49732528591</v>
-      </c>
-      <c r="AP17">
-        <v>48332.28940984754</v>
-      </c>
-      <c r="AQ17">
-        <v>16110.76313661585</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>27592.53464575475</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.278707782</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.3175385850274253</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>1161645.856299648</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>292503.9364308364</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>16579697.1574623</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>27592.53464575475</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>18892.44199622472</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>30504427.9534999</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>12424096.02666514</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.286129272</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>42.6972160684</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>282231.3360693559</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>591556.88040137</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>197185.6268004567</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>17.30891590102803</v>
+      </c>
+      <c r="T18">
         <v>13718.18129735977</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>1164616.433057105</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1361802.059857562</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.286129272</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA18">
+        <v>1428.844975203688</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>445264.1750998006</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>930602.1259585831</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>310200.708652861</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>310200.708652861</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.286129272</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-7.26508405</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>2546712.202035194</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>20679.30308052578</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.286129272</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>282.4903872209434</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>12984152.78748014</v>
+      </c>
+      <c r="AS18">
+        <v>27136879.32583349</v>
+      </c>
+      <c r="AT18">
+        <v>9045626.441944495</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>8748727.292232618</v>
       </c>
-      <c r="AH18">
-        <v>12984152.78748014</v>
-      </c>
-      <c r="AI18">
-        <v>27136879.32583349</v>
-      </c>
-      <c r="AJ18">
-        <v>9045626.441944495</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>17794353.73417711</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.286129272</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>32419.90371351523</v>
+      </c>
+      <c r="BB18">
+        <v>24285.9631817206</v>
+      </c>
+      <c r="BC18">
+        <v>50757.66304979605</v>
+      </c>
+      <c r="BD18">
+        <v>16919.22101659868</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>12401.4718174604</v>
       </c>
-      <c r="AO18">
-        <v>24285.9631817206</v>
-      </c>
-      <c r="AP18">
-        <v>50757.66304979605</v>
-      </c>
-      <c r="AQ18">
-        <v>16919.22101659868</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>29320.69283405908</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.286129272</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.2865157231377761</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>1361802.059857562</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>310200.708652861</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>17794353.73417711</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>29320.69283405908</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>20679.30308052578</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>24833318.35292489</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>5316961.854322773</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.293723563</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>45.1629082387</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>313437.8537430016</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>656965.7414453315</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>218988.5804817771</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>20.48410017704623</v>
+      </c>
+      <c r="T19">
         <v>16234.673595318</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1378256.143769184</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1597244.724250961</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.293723563</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA19">
+        <v>1566.452284160652</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>472686.9280326709</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>987915.6795882821</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>329305.2265294273</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>329305.2265294273</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.293723563</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-7.96476014</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>2791977.586938109</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>22670.85800593744</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.293723563</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>305.8903776375619</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>13892852.91256476</v>
+      </c>
+      <c r="AS19">
+        <v>29036062.58726035</v>
+      </c>
+      <c r="AT19">
+        <v>9678687.529086784</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>9473424.995435292</v>
       </c>
-      <c r="AH19">
-        <v>13892852.91256476</v>
-      </c>
-      <c r="AI19">
-        <v>29036062.58726035</v>
-      </c>
-      <c r="AJ19">
-        <v>9678687.529086784</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>19152112.52452207</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.293723563</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>35121.18438438338</v>
+      </c>
+      <c r="BB19">
+        <v>25549.44060872661</v>
+      </c>
+      <c r="BC19">
+        <v>53398.33087223862</v>
+      </c>
+      <c r="BD19">
+        <v>17799.44362407954</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>13434.78321797688</v>
       </c>
-      <c r="AO19">
-        <v>25549.44060872661</v>
-      </c>
-      <c r="AP19">
-        <v>53398.33087223862</v>
-      </c>
-      <c r="AQ19">
-        <v>17799.44362407954</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>31234.22684205642</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.293723563</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.257772040659021</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>1597244.724250961</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>329305.2265294273</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>19152112.52452207</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>31234.22684205642</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>22670.85800593744</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>18480485.26067129</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>-2652082.299479168</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.301596467</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>47.7709899032</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>348094.8971444007</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>729606.9044146639</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>243202.3014715546</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>24.24174689424642</v>
+      </c>
+      <c r="T20">
         <v>19212.79650103501</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1631086.369619118</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>1874288.671090673</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.301596467</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA20">
+        <v>1719.322444768841</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>502180.3300091723</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>1049556.88971917</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>349852.2965730567</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>349852.2965730567</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.301596467</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-8.742041499999999</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>3064446.82615173</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>24883.30822835204</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.301596467</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>332.0049147059826</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>14894753.84072323</v>
+      </c>
+      <c r="AS20">
+        <v>31130035.52711156</v>
+      </c>
+      <c r="AT20">
+        <v>10376678.50903719</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>10282192.20844428</v>
       </c>
-      <c r="AH20">
-        <v>14894753.84072323</v>
-      </c>
-      <c r="AI20">
-        <v>31130035.52711156</v>
-      </c>
-      <c r="AJ20">
-        <v>10376678.50903719</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>20658870.71748146</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.301596467</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>38134.94095723873</v>
+      </c>
+      <c r="BB20">
+        <v>26914.02173954387</v>
+      </c>
+      <c r="BC20">
+        <v>56250.30543564667</v>
+      </c>
+      <c r="BD20">
+        <v>18750.10181188222</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>14587.62492698451</v>
       </c>
-      <c r="AO20">
-        <v>26914.02173954387</v>
-      </c>
-      <c r="AP20">
-        <v>56250.30543564667</v>
-      </c>
-      <c r="AQ20">
-        <v>18750.10181188222</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>33337.72673886673</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.301596467</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.2313195333280461</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>1874288.671090673</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>349852.2965730567</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>20658870.71748146</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>33337.72673886673</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>24883.30822835204</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>11396860.02209287</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>-11544372.69801954</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.309702378</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>50.5296839041</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>386583.9945176224</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>810280.0525089366</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>270093.3508363122</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>28.68870432684033</v>
+      </c>
+      <c r="T21">
         <v>22737.23261423731</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>1930296.310479522</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>2200389.661315834</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.309702378</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA21">
+        <v>1889.03121191192</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>533866.7441121528</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>1115781.495194399</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>371927.1650647997</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>371927.1650647997</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.309702378</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-9.604940190000001</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>3366928.477818676</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>27339.45923988765</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.309702378</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>361.1947877013504</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>16000765.03368051</v>
+      </c>
+      <c r="AS21">
+        <v>33441598.92039226</v>
+      </c>
+      <c r="AT21">
+        <v>11147199.64013075</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>11186202.57511082</v>
       </c>
-      <c r="AH21">
-        <v>16000765.03368051</v>
-      </c>
-      <c r="AI21">
-        <v>33441598.92039226</v>
-      </c>
-      <c r="AJ21">
-        <v>11147199.64013075</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>22333402.21524157</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.309702378</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>41502.59896603689</v>
+      </c>
+      <c r="BB21">
+        <v>28388.75508730876</v>
+      </c>
+      <c r="BC21">
+        <v>59332.49813247531</v>
+      </c>
+      <c r="BD21">
+        <v>19777.49937749177</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>15875.8433083841</v>
       </c>
-      <c r="AO21">
-        <v>28388.75508730876</v>
-      </c>
-      <c r="AP21">
-        <v>59332.49813247531</v>
-      </c>
-      <c r="AQ21">
-        <v>19777.49937749177</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>35653.34268587587</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.309702378</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.2070881891698393</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>2200389.661315834</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>371927.1650647997</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>22333402.21524157</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>35653.34268587587</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>27339.45923988765</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>3501996.000272186</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>-21466715.84327579</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.318076354</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>53.44768817240001</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>429328.8636419175</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>899873.298193459</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>299957.7660644863</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>33.95142171815254</v>
+      </c>
+      <c r="T22">
         <v>26908.1992827218</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>2284394.00160607</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>2584351.767670556</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.318076354</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA22">
+        <v>2077.159007520904</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>567848.8683509527</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>1186804.134853491</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>395601.378284497</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>395601.378284497</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.318076354</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-10.561492</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>3702239.41842725</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>30062.18407762927</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.318076354</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>393.7485532496376</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>17218551.73627423</v>
+      </c>
+      <c r="AS22">
+        <v>35986773.12881315</v>
+      </c>
+      <c r="AT22">
+        <v>11995591.04293771</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>12194392.69414128</v>
       </c>
-      <c r="AH22">
-        <v>17218551.73627423</v>
-      </c>
-      <c r="AI22">
-        <v>35986773.12881315</v>
-      </c>
-      <c r="AJ22">
-        <v>11995591.04293771</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>24189983.73707899</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.318076354</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>45257.28190983478</v>
+      </c>
+      <c r="BB22">
+        <v>29977.60099810708</v>
+      </c>
+      <c r="BC22">
+        <v>62653.18608604379</v>
+      </c>
+      <c r="BD22">
+        <v>20884.39536201459</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>17312.10897784682</v>
       </c>
-      <c r="AO22">
-        <v>29977.60099810708</v>
-      </c>
-      <c r="AP22">
-        <v>62653.18608604379</v>
-      </c>
-      <c r="AQ22">
-        <v>20884.39536201459</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>38196.50433986141</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.318076354</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1849957243110498</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>2584351.767670556</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>395601.378284497</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>24189983.73707899</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>38196.50433986141</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>30062.18407762927</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>-5299054.919818078</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-32537250.49126961</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.326700855</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>56.5342019759</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>476800.058767407</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>999372.923176485</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>333124.307725495</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>40.17954261565902</v>
+      </c>
+      <c r="T23">
         <v>31844.29650004056</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>2703448.088284693</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>3036572.396010188</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.326700855</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA23">
+        <v>2285.483040473175</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>604245.0946370962</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>1262872.247791531</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>420957.4159305103</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>420957.4159305103</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.326700855</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-11.6207333</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>4073547.269106503</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>33077.2038251448</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.326700855</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>430.0680196862336</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>18559534.15580186</v>
+      </c>
+      <c r="AS23">
+        <v>38789426.38562588</v>
+      </c>
+      <c r="AT23">
+        <v>12929808.79520863</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>13319206.56968265</v>
       </c>
-      <c r="AH23">
-        <v>18559534.15580186</v>
-      </c>
-      <c r="AI23">
-        <v>38789426.38562588</v>
-      </c>
-      <c r="AJ23">
-        <v>12929808.79520863</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>26249015.36489128</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.326700855</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>49445.14707021308</v>
+      </c>
+      <c r="BB23">
+        <v>31688.74944340284</v>
+      </c>
+      <c r="BC23">
+        <v>66229.48633671194</v>
+      </c>
+      <c r="BD23">
+        <v>22076.49544557065</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>18914.07831806126</v>
       </c>
-      <c r="AO23">
-        <v>31688.74944340284</v>
-      </c>
-      <c r="AP23">
-        <v>66229.48633671194</v>
-      </c>
-      <c r="AQ23">
-        <v>22076.49544557065</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>40990.57376363191</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.326700855</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.1649399167620199</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>3036572.396010188</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>420957.4159305103</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>26249015.36489128</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>40990.57376363191</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>33077.2038251448</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>-15087044.72500735</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-44867657.67942811</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.335609674</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>59.7989564325</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>529520.172263308</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1109874.281063894</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>369958.0936879645</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>47.550162494864</v>
+      </c>
+      <c r="T24">
         <v>37685.88128530447</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>3199374.296616994</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>3569332.390304958</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.335609674</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA24">
+        <v>2515.538167527815</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>643113.3482468307</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>1344106.897835876</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>448035.6326119587</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>448035.6326119587</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.335609674</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-12.7904682</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>4483587.69293015</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>36406.73206659282</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.335609674</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>470.4864269962192</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>20032056.13922083</v>
+      </c>
+      <c r="AS24">
+        <v>41866997.33097153</v>
+      </c>
+      <c r="AT24">
+        <v>13955665.77699051</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>14570964.64407291</v>
       </c>
-      <c r="AH24">
-        <v>20032056.13922083</v>
-      </c>
-      <c r="AI24">
-        <v>41866997.33097153</v>
-      </c>
-      <c r="AJ24">
-        <v>13955665.77699051</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>28526630.42106342</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.335609674</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>54104.39913215192</v>
+      </c>
+      <c r="BB24">
+        <v>33525.70721938894</v>
+      </c>
+      <c r="BC24">
+        <v>70068.72808852288</v>
+      </c>
+      <c r="BD24">
+        <v>23356.24269617429</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>20696.36563289035</v>
       </c>
-      <c r="AO24">
-        <v>33525.70721938894</v>
-      </c>
-      <c r="AP24">
-        <v>70068.72808852288</v>
-      </c>
-      <c r="AQ24">
-        <v>23356.24269617429</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>44052.60832906465</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.335609674</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1468062240441022</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>3569332.390304958</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>448035.6326119587</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>28526630.42106342</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>44052.60832906465</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>36406.73206659282</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>-25955027.87056959</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-58579485.65494558</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.344815721</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>63.2522453516</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>588069.5925940189</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1232593.866077064</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>410864.6220256878</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>56.27286552041424</v>
+      </c>
+      <c r="T25">
         <v>44599.05956820432</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>3786274.32792568</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>4197138.949951367</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.344815721</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA25">
+        <v>2769.089154069334</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>684536.2345653187</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>1430680.730241516</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>476893.5767471719</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>476893.5767471719</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.344815721</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-14.0796698</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>4935506.132277495</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>40076.30979409326</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.344815721</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>515.4078478121496</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>21646558.89762331</v>
+      </c>
+      <c r="AS25">
+        <v>45241308.09603272</v>
+      </c>
+      <c r="AT25">
+        <v>15080436.03201091</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>15962181.04674227</v>
       </c>
-      <c r="AH25">
-        <v>21646558.89762331</v>
-      </c>
-      <c r="AI25">
-        <v>45241308.09603272</v>
-      </c>
-      <c r="AJ25">
-        <v>15080436.03201091</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>31042617.07875318</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.344815721</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>59281.29269446068</v>
+      </c>
+      <c r="BB25">
+        <v>35494.00416272724</v>
+      </c>
+      <c r="BC25">
+        <v>74182.46870009993</v>
+      </c>
+      <c r="BD25">
+        <v>24727.48956669997</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>22676.66453144014</v>
       </c>
-      <c r="AO25">
-        <v>35494.00416272724</v>
-      </c>
-      <c r="AP25">
-        <v>74182.46870009993</v>
-      </c>
-      <c r="AQ25">
-        <v>24727.48956669997</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>47404.15409814011</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.344815721</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.1304567216277877</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>4197138.949951367</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>476893.5767471719</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>31042617.07875318</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>47404.15409814011</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>40076.30979409326</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>-38024258.52409916</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-73828388.59344311</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.354268152</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>66.9049557474</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>653092.8612930331</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1368882.637270198</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>456294.2124233991</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>66.59567934894993</v>
+      </c>
+      <c r="T26">
         <v>52780.40566801027</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>4480836.522857122</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>4937130.735280521</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.354268152</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA26">
+        <v>3048.359249291002</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>728652.4462455946</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1522883.612653293</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>507627.8708844309</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>507627.8708844309</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.354268152</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-15.4996424</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>5433265.211468829</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>44118.11351712688</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.354268152</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>565.4500674314128</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>23420470.50722307</v>
+      </c>
+      <c r="AS26">
+        <v>48948783.36009622</v>
+      </c>
+      <c r="AT26">
+        <v>16316261.12003207</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>17511988.58835085</v>
       </c>
-      <c r="AH26">
-        <v>23420470.50722307</v>
-      </c>
-      <c r="AI26">
-        <v>48948783.36009622</v>
-      </c>
-      <c r="AJ26">
-        <v>16316261.12003207</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>33828249.70838293</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.354268152</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>65046.75421659224</v>
+      </c>
+      <c r="BB26">
+        <v>37606.78179748465</v>
+      </c>
+      <c r="BC26">
+        <v>78598.1739567429</v>
+      </c>
+      <c r="BD26">
+        <v>26199.3913189143</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>24882.1062629515</v>
       </c>
-      <c r="AO26">
-        <v>37606.78179748465</v>
-      </c>
-      <c r="AP26">
-        <v>78598.1739567429</v>
-      </c>
-      <c r="AQ26">
-        <v>26199.3913189143</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>51081.4975818658</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.354268152</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.1157700965532469</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>4937130.735280521</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>507627.8708844309</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>33828249.70838293</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>51081.4975818658</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>44118.11351712688</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>-51393898.99945356</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-90762106.92510043</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.363981482</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>70.768604258</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>725305.8034613251</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1520240.964054937</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>506746.9880183125</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>78.81213289839407</v>
+      </c>
+      <c r="T27">
         <v>62462.55592862223</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>5302810.737690325</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>5809557.725708637</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.363981482</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA27">
+        <v>3355.266741424409</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>775532.5230908395</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1620862.973259854</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>540287.6577532848</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>540287.6577532848</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.363981482</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-17.0601397</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>5980284.005443136</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>48559.90612419826</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.363981482</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>621.1314891151552</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>25366848.16203715</v>
+      </c>
+      <c r="AS27">
+        <v>53016712.65865764</v>
+      </c>
+      <c r="AT27">
+        <v>17672237.55288588</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>19236442.21789636</v>
       </c>
-      <c r="AH27">
-        <v>25366848.16203715</v>
-      </c>
-      <c r="AI27">
-        <v>53016712.65865764</v>
-      </c>
-      <c r="AJ27">
-        <v>17672237.55288588</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>36908679.77078223</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.363981482</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>71460.11898450136</v>
+      </c>
+      <c r="BB27">
+        <v>39870.76812432131</v>
+      </c>
+      <c r="BC27">
+        <v>83329.90537983153</v>
+      </c>
+      <c r="BD27">
+        <v>27776.63512661051</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>27335.38814580798</v>
       </c>
-      <c r="AO27">
-        <v>39870.76812432131</v>
-      </c>
-      <c r="AP27">
-        <v>83329.90537983153</v>
-      </c>
-      <c r="AQ27">
-        <v>27776.63512661051</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>55112.02327241849</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.363981482</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1026092410248037</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>5809557.725708637</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>540287.6577532848</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>36908679.77078223</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>55112.02327241849</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>48559.90612419826</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>-66196314.67577662</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-109558511.7594174</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.373965364</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>74.85537159590001</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>805503.374629869</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1688335.073224206</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>562778.3577414018</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>93.26959738809889</v>
+      </c>
+      <c r="T28">
         <v>73920.81940993777</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>6275569.564489509</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>6838347.922230911</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.373965364</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA28">
+        <v>3691.895615599263</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>825257.63348162</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1724788.453976586</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>574929.4846588619</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>574929.4846588619</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.373965364</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-18.7717579</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>6580276.920207215</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>53431.84859208258</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.373965364</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>683.0536085967664</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>27500910.07701393</v>
+      </c>
+      <c r="AS28">
+        <v>57476902.06095912</v>
+      </c>
+      <c r="AT28">
+        <v>19158967.35365304</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>21154170.25824185</v>
       </c>
-      <c r="AH28">
-        <v>27500910.07701393</v>
-      </c>
-      <c r="AI28">
-        <v>57476902.06095912</v>
-      </c>
-      <c r="AJ28">
-        <v>19158967.35365304</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>40313137.61189489</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.373965364</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>78590.30575092918</v>
+      </c>
+      <c r="BB28">
+        <v>42294.35023719761</v>
+      </c>
+      <c r="BC28">
+        <v>88395.19199574299</v>
+      </c>
+      <c r="BD28">
+        <v>29465.063998581</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>30062.87342825875</v>
       </c>
-      <c r="AO28">
-        <v>42294.35023719761</v>
-      </c>
-      <c r="AP28">
-        <v>88395.19199574299</v>
-      </c>
-      <c r="AQ28">
-        <v>29465.063998581</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>59527.93742683975</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.373965364</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.09084497807501365</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>6838347.922230911</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>574929.4846588619</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>40313137.61189489</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>59527.93742683975</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>53431.84859208258</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-82544617.63882245</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-130383992.443626</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.384228945</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>79.1781429043</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>894568.4487530786</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1875015.468586453</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>625005.1561954842</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>110.3791700227443</v>
+      </c>
+      <c r="T29">
         <v>87481.01120152604</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>7426773.346796221</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>8051778.502991705</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.384228945</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA29">
+        <v>4060.559039847781</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>877926.6260397837</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1834866.648423148</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>611622.2161410493</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>611622.2161410493</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.384228945</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-20.6462585</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>7237366.847575954</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>58767.41880231674</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.384228945</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>751.9008434747992</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>29839873.70310752</v>
+      </c>
+      <c r="AS29">
+        <v>62365336.03949472</v>
+      </c>
+      <c r="AT29">
+        <v>20788445.34649824</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>23286369.12241453</v>
       </c>
-      <c r="AH29">
-        <v>29839873.70310752</v>
-      </c>
-      <c r="AI29">
-        <v>62365336.03949472</v>
-      </c>
-      <c r="AJ29">
-        <v>20788445.34649824</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>44074814.46891277</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.384228945</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>86515.60691723866</v>
+      </c>
+      <c r="BB29">
+        <v>44887.12219309866</v>
+      </c>
+      <c r="BC29">
+        <v>93814.08538357618</v>
+      </c>
+      <c r="BD29">
+        <v>31271.36179452539</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>33094.51102741361</v>
       </c>
-      <c r="AO29">
-        <v>44887.12219309866</v>
-      </c>
-      <c r="AP29">
-        <v>93814.08538357618</v>
-      </c>
-      <c r="AQ29">
-        <v>31271.36179452539</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>64365.872821939</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.384228945</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.08035023564812274</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>8051778.502991705</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>611622.2161410493</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>44074814.46891277</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>64365.872821939</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>58767.41880231674</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-100602064.6248404</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-153463413.1045101</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.394773592</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>83.75054712910001</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>993481.5145330981</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2082337.254461374</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>694112.4181537912</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>130.6273597346759</v>
+      </c>
+      <c r="T30">
         <v>103528.7139577174</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>8789156.445368715</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>9483268.863522505</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.394773592</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA30">
+        <v>4462.655377986307</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>933497.3926465367</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1951009.550631262</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>650336.5168770872</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>650336.5168770872</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.394773592</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-22.6907516</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>7954046.171436874</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>64586.85491206741</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.394773592</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>828.3502138248176</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>32399804.13775178</v>
+      </c>
+      <c r="AS30">
+        <v>67715590.64790121</v>
+      </c>
+      <c r="AT30">
+        <v>22571863.5493004</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>25654006.1221546</v>
       </c>
-      <c r="AH30">
-        <v>32399804.13775178</v>
-      </c>
-      <c r="AI30">
-        <v>67715590.64790121</v>
-      </c>
-      <c r="AJ30">
-        <v>22571863.5493004</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>48225869.671455</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.394773592</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>95313.42088719114</v>
+      </c>
+      <c r="BB30">
+        <v>47656.38763593906</v>
+      </c>
+      <c r="BC30">
+        <v>99601.85015911263</v>
+      </c>
+      <c r="BD30">
+        <v>33200.61671970421</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>36459.90788262206</v>
       </c>
-      <c r="AO30">
-        <v>47656.38763593906</v>
-      </c>
-      <c r="AP30">
-        <v>99601.85015911263</v>
-      </c>
-      <c r="AQ30">
-        <v>33200.61671970421</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>69660.52460232627</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.394773592</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.07101170642848945</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>9483268.863522505</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>650336.5168770872</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>48225869.671455</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>69660.52460232627</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>64586.85491206741</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-120483107.3897144</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-178976829.8210834</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.405614518</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>88.587</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>1103331.468226964</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2312582.757403717</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>770860.9191345723</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>154.5899205015198</v>
+      </c>
+      <c r="T31">
         <v>122520.2414934795</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>10401458.00179019</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>11172318.92092476</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.405614518</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>481.9308357670724</v>
+      </c>
+      <c r="AA31">
+        <v>4900.091412883181</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>991996.5227463588</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>2073272.73253989</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>691090.9108466299</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>691090.9108466299</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.405614518</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-24.9149324</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>8733713.460061349</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>70917.75329569814</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.405614518</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>913.1907808039631</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>35199604.60263186</v>
+      </c>
+      <c r="AS31">
+        <v>73567173.61950058</v>
+      </c>
+      <c r="AT31">
+        <v>24522391.20650019</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>28281518.48149874</v>
       </c>
-      <c r="AH31">
-        <v>35199604.60263186</v>
-      </c>
-      <c r="AI31">
-        <v>73567173.61950058</v>
-      </c>
-      <c r="AJ31">
-        <v>24522391.20650019</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>52803909.68799893</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.405614518</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>105073.9640962637</v>
+      </c>
+      <c r="BB31">
+        <v>50611.55587193963</v>
+      </c>
+      <c r="BC31">
+        <v>105778.1517723538</v>
+      </c>
+      <c r="BD31">
+        <v>35259.38392411794</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>40193.57416985278</v>
       </c>
-      <c r="AO31">
-        <v>50611.55587193963</v>
-      </c>
-      <c r="AP31">
-        <v>105778.1517723538</v>
-      </c>
-      <c r="AQ31">
-        <v>35259.38392411794</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>75452.95809397072</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.405614518</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.06271621485059163</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>11172318.92092476</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>691090.9108466299</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>52803909.68799893</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>75452.95809397072</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>70917.75329569814</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-142322977.0012843</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-207136667.2324443</v>
       </c>
     </row>
